--- a/MainTop/20.01.2026 Таня ВБ/p1.xlsx
+++ b/MainTop/20.01.2026 Таня ВБ/p1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Среднее количество заказов в день, шт</t>
+          <t>Num_Copies</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Остатки склад ВБ, шт</t>
+          <t>Тип упорядочить</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Остатки МП, шт</t>
+          <t>Имя папки</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>дней</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Num_Copies</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Тип упорядочить</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Имя папки</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Остаток</t>
         </is>
@@ -487,32 +467,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
         <v>76</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>35.5</v>
       </c>
     </row>
     <row r="3">
@@ -522,32 +490,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
-      </c>
-      <c r="F3" t="n">
-        <v>62</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>-13.3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -557,32 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>54</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>-11.59999999999999</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -592,32 +536,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>54</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>23.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -627,32 +559,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
-      </c>
-      <c r="F6" t="n">
         <v>48</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>14.9</v>
       </c>
     </row>
     <row r="7">
@@ -662,32 +582,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.01.2026 Таня ВБ</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>20.01.2026 Таня ВБ</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>8.799999999999997</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
